--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_beg.xlsx
@@ -2356,7 +2356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]Aren't you “just ordinary people in Columbia” right now? You're not in any sort of rush, are you?
+    <t xml:space="preserve">[name="Muelsyse"]Aren't you 'just ordinary people in Columbia' right now? You're not in any sort of rush, are you?
 </t>
   </si>
   <si>
@@ -2524,7 +2524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Prisoner B"]Hahah, truth! Oughta be callin' you a “lady!”
+    <t xml:space="preserve">[name="Infected Prisoner B"]Hahah, truth! Oughta be callin' you a 'lady!'
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메이어"]그래, 그런데 사일런스. 너 정말 그 사람이랑 여기에서 약속한 것 맞아?
+    <t xml:space="preserve">[name="메이어"]그래, 그런데 사일런스. 너 정말 그 사람이랑 여기로 약속한 것 맞아?
 </t>
   </si>
   <si>
@@ -3080,7 +3080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="뮤엘시스"]그럼 내 진정성을 표현하기 위해, 먼저 질문 하나를 받을게. 자~ 어서 질문해 보세요~
+    <t xml:space="preserve">[name="뮤엘시스"]그럼 내 진정성을 보여주기 위해, 먼저 질문 하나를 받을게. 자~ 어서 질문해 보세요~
 </t>
   </si>
   <si>
@@ -3472,7 +3472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="감염자 죄수 A"]네가 밖에서는 어디에서 굴러먹다 온 놈인지 모르겠지만, 맨스필드에서는 몸 사리고 다니는 게 좋을 거야.
+    <t xml:space="preserve">[name="감염자 죄수 A"]네가 어디에서 굴러먹다 온 놈인지 모르겠지만, 맨스필드에서는 몸 사리고 다니는 게 좋을 거야.
 </t>
   </si>
   <si>
@@ -3488,7 +3488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="감염자 죄수 A"]그렇기 때문에 이곳에서는 무슨 말이든 다 헛소리가 된다, 이 교도관들이 유일한 법인 거지.
+    <t xml:space="preserve">[name="감염자 죄수 A"]그렇기 때문에 이곳에서는 어떤 법도 쓸모없어. 이 교도관들이 유일한 법인 거지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_beg.xlsx
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]...I don’t know what you’re talking about.
+    <t xml:space="preserve">[name="Silence"]...I don't know what you're talking about.
 </t>
   </si>
   <si>
@@ -3100,7 +3100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="뮤엘시스"]믿을진 모르겠지만, 난는 하이드브로의 추격병과는 무관해.
+    <t xml:space="preserve">[name="뮤엘시스"]믿을진 모르겠지만, 나는 하이드브로의 추격병과는 무관해.
 </t>
   </si>
   <si>
